--- a/Data Set - ToyCo.xlsx
+++ b/Data Set - ToyCo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29607"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Files\02 - Teaching\Courses\MATH_CSCI 4300_8306\Fall 2021\11 - Assessments\Projects\Project 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea31a6d593e1a3b1/Documents/MATH 8306/opl/Toyco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{2EFA68E3-91FA-4596-880F-072CD524A4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDAC61A7-5455-4F64-9B5C-D0ED3F469C60}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A8C4619-426A-4609-A3F2-83DCDDE5575F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7156FCCE-5201-4BF1-844A-CF6193CC2829}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="15390" windowHeight="9442" xr2:uid="{7156FCCE-5201-4BF1-844A-CF6193CC2829}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Set - ToyCo" sheetId="1" r:id="rId1"/>
@@ -26,21 +26,10 @@
     <definedName name="FixedCostRange">'Data Set - ToyCo'!$J$3:$J$52</definedName>
     <definedName name="InitEmpRange">'Data Set - ToyCo'!$L$3:$L$52</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -49,7 +38,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
-    <t>Table 1 – Estimated Demand of Labor Hours over the 52 Weeks of 2021</t>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>Fixed Cost</t>
+  </si>
+  <si>
+    <t>Factory</t>
   </si>
   <si>
     <t>Table 2 – Relevant Information for each Factory</t>
@@ -58,176 +53,170 @@
     <t>Week</t>
   </si>
   <si>
-    <t>Demand</t>
-  </si>
-  <si>
-    <t>Factory</t>
-  </si>
-  <si>
-    <t>Fixed Cost</t>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
   </si>
   <si>
     <t>Capacity (Labor Hours/Week)</t>
   </si>
   <si>
+    <t>Table 1 – Estimated Demand of Labor Hours over the 52 Weeks of 2022</t>
+  </si>
+  <si>
     <t>Number of Employees by the end of Dec. 2021</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Montana</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -494,11 +483,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -548,9 +534,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,9 +553,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -610,7 +593,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -716,7 +699,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -858,7 +841,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -868,1098 +851,1074 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D772AB-33FE-4164-B1C4-99F7A7A1314A}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="17.85546875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="53.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.06640625" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="1"/>
+    <col min="4" max="4" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.1328125" style="1"/>
+    <col min="9" max="9" width="17.86328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45.75">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
+    <row r="1" spans="1:12" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B1" s="1"/>
       <c r="I1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15">
+      <c r="K2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>135000</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="20">
+      <c r="I3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="19">
         <v>20758021</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="21">
         <v>3158</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="19">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>130000</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="11">
+      <c r="I4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="10">
         <v>17584310</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="22">
         <v>3100</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>125000</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="11">
+      <c r="I5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="10">
         <v>14811159</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="22">
         <v>4237</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>105000</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="11">
+      <c r="I6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="10">
         <v>10131987</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <v>2798</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>135000</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="11">
+      <c r="I7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="10">
         <v>17014932</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="22">
         <v>4261</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>120000</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="11">
+      <c r="I8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="10">
         <v>19202124</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="22">
         <v>2085</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>110000</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="11">
+      <c r="I9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="10">
         <v>10286195</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="22">
         <v>3047</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>135000</v>
       </c>
-      <c r="I10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="11">
+      <c r="I10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="10">
         <v>19389090</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="22">
         <v>2112</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>140000</v>
       </c>
-      <c r="I11" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="11">
+      <c r="I11" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="10">
         <v>18791512</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="22">
         <v>2837</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>105000</v>
       </c>
-      <c r="I12" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="11">
+      <c r="I12" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="10">
         <v>15234419</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="22">
         <v>4802</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>100000</v>
       </c>
-      <c r="I13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="11">
+      <c r="I13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="10">
         <v>23729032</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="22">
         <v>3246</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="10">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>130000</v>
       </c>
-      <c r="I14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="11">
+      <c r="I14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="10">
         <v>20596464</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="22">
         <v>4387</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="10">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>135000</v>
       </c>
-      <c r="I15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="11">
+      <c r="I15" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="10">
         <v>13711387</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="22">
         <v>3200</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="10">
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>100000</v>
       </c>
-      <c r="I16" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="11">
+      <c r="I16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="10">
         <v>17003874</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="22">
         <v>2292</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="10">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15">
+    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>135000</v>
       </c>
-      <c r="I17" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="11">
+      <c r="I17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="10">
         <v>14064511</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="22">
         <v>3774</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="10">
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15">
+    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>125000</v>
       </c>
-      <c r="I18" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="11">
+      <c r="I18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="10">
         <v>21202012</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="22">
         <v>2475</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="10">
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15">
+    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>140000</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="13">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="12">
         <v>29520850</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="22">
         <v>4529</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="10">
         <v>38</v>
       </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="1:14" ht="15">
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>135000</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="11">
+      <c r="I20" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="10">
         <v>28956391</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="22">
         <v>2920</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="10">
         <v>33</v>
       </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" ht="15">
+    </row>
+    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>110000</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="11">
+      <c r="I21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="10">
         <v>25613230</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="22">
         <v>2288</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="10">
         <v>150</v>
       </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" ht="15">
+    </row>
+    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>135000</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="11">
+      <c r="I22" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="10">
         <v>19495687</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="22">
         <v>3424</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="10">
         <v>38</v>
       </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" ht="15">
+    </row>
+    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>105000</v>
       </c>
-      <c r="I23" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="11">
+      <c r="I23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="10">
         <v>23411151</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="22">
         <v>3627</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="10">
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15">
+    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>110000</v>
       </c>
-      <c r="I24" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="11">
+      <c r="I24" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="10">
         <v>10939448</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="22">
         <v>2997</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="10">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15">
+    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>115000</v>
       </c>
-      <c r="I25" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="11">
+      <c r="I25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="10">
         <v>27343106</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="22">
         <v>2687</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="10">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15">
+    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>110000</v>
       </c>
-      <c r="I26" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="11">
+      <c r="I26" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" s="10">
         <v>13339723</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="22">
         <v>4644</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="10">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15">
+    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>105000</v>
       </c>
-      <c r="I27" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="11">
+      <c r="I27" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="10">
         <v>14033738</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="22">
         <v>4139</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="10">
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15">
+    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>115000</v>
       </c>
-      <c r="I28" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" s="11">
+      <c r="I28" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="10">
         <v>18461564</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="22">
         <v>3477</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="10">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15">
+    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>125000</v>
       </c>
-      <c r="I29" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" s="11">
+      <c r="I29" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="10">
         <v>29965277</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="22">
         <v>3643</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="10">
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15">
+    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>130000</v>
       </c>
-      <c r="I30" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J30" s="11">
+      <c r="I30" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="10">
         <v>28356764</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="22">
         <v>4838</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="10">
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15">
+    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>105000</v>
       </c>
-      <c r="I31" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J31" s="11">
+      <c r="I31" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="10">
         <v>12648186</v>
       </c>
-      <c r="K31" s="23">
+      <c r="K31" s="22">
         <v>2124</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="10">
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15">
+    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <v>130000</v>
       </c>
-      <c r="I32" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J32" s="11">
+      <c r="I32" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" s="10">
         <v>14675312</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="22">
         <v>2830</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32" s="10">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15">
+    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <v>140000</v>
       </c>
-      <c r="I33" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" s="11">
+      <c r="I33" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="10">
         <v>14691590</v>
       </c>
-      <c r="K33" s="23">
+      <c r="K33" s="22">
         <v>2185</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L33" s="10">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15">
+    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>140000</v>
       </c>
-      <c r="I34" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J34" s="11">
+      <c r="I34" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="10">
         <v>21140643</v>
       </c>
-      <c r="K34" s="23">
+      <c r="K34" s="22">
         <v>4933</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L34" s="10">
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15">
+    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>130000</v>
       </c>
-      <c r="I35" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J35" s="11">
+      <c r="I35" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="10">
         <v>29191973</v>
       </c>
-      <c r="K35" s="23">
+      <c r="K35" s="22">
         <v>3050</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L35" s="10">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15">
+    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>135000</v>
       </c>
-      <c r="I36" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J36" s="11">
+      <c r="I36" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" s="10">
         <v>19645624</v>
       </c>
-      <c r="K36" s="23">
+      <c r="K36" s="22">
         <v>2650</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36" s="10">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15">
+    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>100000</v>
       </c>
-      <c r="I37" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J37" s="11">
+      <c r="I37" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="10">
         <v>19705177</v>
       </c>
-      <c r="K37" s="23">
+      <c r="K37" s="22">
         <v>2383</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="10">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15">
+    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>135000</v>
       </c>
-      <c r="I38" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="J38" s="11">
+      <c r="I38" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="10">
         <v>18626467</v>
       </c>
-      <c r="K38" s="23">
+      <c r="K38" s="22">
         <v>2784</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="10">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15">
+    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <v>100000</v>
       </c>
-      <c r="I39" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J39" s="11">
+      <c r="I39" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="10">
         <v>13380011</v>
       </c>
-      <c r="K39" s="23">
+      <c r="K39" s="22">
         <v>2993</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L39" s="10">
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15">
+    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>120000</v>
       </c>
-      <c r="I40" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J40" s="11">
+      <c r="I40" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" s="10">
         <v>24746218</v>
       </c>
-      <c r="K40" s="23">
+      <c r="K40" s="22">
         <v>4881</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="10">
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15">
+    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>135000</v>
       </c>
-      <c r="I41" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J41" s="11">
+      <c r="I41" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="10">
         <v>12619211</v>
       </c>
-      <c r="K41" s="23">
+      <c r="K41" s="22">
         <v>4508</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L41" s="10">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15">
+    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>125000</v>
       </c>
-      <c r="I42" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="J42" s="11">
+      <c r="I42" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="10">
         <v>19902567</v>
       </c>
-      <c r="K42" s="23">
+      <c r="K42" s="22">
         <v>4915</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L42" s="10">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15">
+    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>135000</v>
       </c>
-      <c r="I43" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J43" s="11">
+      <c r="I43" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="10">
         <v>22531449</v>
       </c>
-      <c r="K43" s="23">
+      <c r="K43" s="22">
         <v>3911</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L43" s="10">
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15">
+    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>105000</v>
       </c>
-      <c r="I44" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="J44" s="11">
+      <c r="I44" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="10">
         <v>17488150</v>
       </c>
-      <c r="K44" s="23">
+      <c r="K44" s="22">
         <v>3489</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L44" s="10">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15">
+    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <v>135000</v>
       </c>
-      <c r="I45" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J45" s="11">
+      <c r="I45" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J45" s="10">
         <v>22068967</v>
       </c>
-      <c r="K45" s="23">
+      <c r="K45" s="22">
         <v>4709</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L45" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15">
+    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <v>140000</v>
       </c>
-      <c r="I46" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J46" s="11">
+      <c r="I46" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="10">
         <v>13516915</v>
       </c>
-      <c r="K46" s="23">
+      <c r="K46" s="22">
         <v>4111</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L46" s="10">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15">
+    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="10">
         <v>105000</v>
       </c>
-      <c r="I47" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J47" s="11">
+      <c r="I47" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="10">
         <v>22710376</v>
       </c>
-      <c r="K47" s="23">
+      <c r="K47" s="22">
         <v>2123</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L47" s="10">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15">
+    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="10">
         <v>115000</v>
       </c>
-      <c r="I48" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="J48" s="11">
+      <c r="I48" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="10">
         <v>22056169</v>
       </c>
-      <c r="K48" s="23">
+      <c r="K48" s="22">
         <v>3002</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L48" s="10">
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15">
+    <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <v>47</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="10">
         <v>120000</v>
       </c>
-      <c r="I49" s="18" t="s">
+      <c r="I49" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J49" s="10">
         <v>16216990</v>
       </c>
-      <c r="K49" s="23">
+      <c r="K49" s="22">
         <v>4088</v>
       </c>
-      <c r="L49" s="11">
+      <c r="L49" s="10">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15">
+    <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="10">
         <v>110000</v>
       </c>
-      <c r="I50" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="J50" s="11">
+      <c r="I50" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J50" s="10">
         <v>17150147</v>
       </c>
-      <c r="K50" s="23">
+      <c r="K50" s="22">
         <v>2113</v>
       </c>
-      <c r="L50" s="11">
+      <c r="L50" s="10">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15">
+    <row r="51" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <v>49</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="10">
         <v>105000</v>
       </c>
-      <c r="I51" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="J51" s="11">
+      <c r="I51" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="10">
         <v>15361521</v>
       </c>
-      <c r="K51" s="23">
+      <c r="K51" s="22">
         <v>4470</v>
       </c>
-      <c r="L51" s="11">
+      <c r="L51" s="10">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:12" thickBot="1">
+    <row r="52" spans="1:12" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="10">
         <v>125000</v>
       </c>
-      <c r="I52" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="J52" s="12">
+      <c r="I52" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J52" s="11">
         <v>24200202</v>
       </c>
-      <c r="K52" s="24">
+      <c r="K52" s="23">
         <v>2735</v>
       </c>
-      <c r="L52" s="12">
+      <c r="L52" s="11">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15">
+    <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <v>51</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="10">
         <v>120000</v>
       </c>
     </row>
-    <row r="54" spans="1:12" thickBot="1">
+    <row r="54" spans="1:12" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="4">
         <v>52</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="11">
         <v>115000</v>
       </c>
     </row>
